--- a/PF7111/hand_faired_curve.xlsx
+++ b/PF7111/hand_faired_curve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mars/Documents/TPS/tps_py_tools/PF7111/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coolhomie1987/Documents/Coding/tps25a/viper/tps_py_tools/PF7111/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26A7E33-055C-264D-9830-58AF3C0DCFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBBE216-4EA1-1F43-9B90-EDA0908FE362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="26800" windowHeight="17100" xr2:uid="{FC3B8A9C-53C3-E342-9B5F-A4F5BDE081A0}"/>
+    <workbookView xWindow="60" yWindow="2360" windowWidth="26800" windowHeight="17100" xr2:uid="{FC3B8A9C-53C3-E342-9B5F-A4F5BDE081A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>dPp_qcic</t>
   </si>
   <si>
     <t>Mic</t>
+  </si>
+  <si>
+    <t>Slope</t>
   </si>
 </sst>
 </file>
@@ -191,40 +194,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.29111099243164062</c:v>
+                  <c:v>0.29118699999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31343650817871088</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39470863342285162</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46909332275390619</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53052139282226562</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54597663879394531</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61533927917480469</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62619781494140625</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.71057319641113281</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7862701416015625</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86182403564453125</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.90713882446289062</c:v>
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91948700000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -236,40 +245,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>2.164E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.85E-2</c:v>
+                  <c:v>1.72E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>1.44E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>1.242E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6299999999999999E-2</c:v>
+                  <c:v>1.0970000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.55E-2</c:v>
+                  <c:v>9.7300000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2500000000000001E-2</c:v>
+                  <c:v>8.7500000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.21E-2</c:v>
+                  <c:v>7.7999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.01</c:v>
+                  <c:v>6.9499999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.5000000000000006E-3</c:v>
+                  <c:v>6.1250000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4999999999999997E-3</c:v>
+                  <c:v>5.3499999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0000000000000001E-3</c:v>
+                  <c:v>4.7400000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.15E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9500000000000004E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,15 +1043,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1382,116 +1397,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD0CA6BB-E101-6142-881E-903EEE001F77}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.29111099243164062</v>
+        <v>0.29118699999999997</v>
       </c>
       <c r="B2">
-        <v>4.2999999999999997E-2</v>
+        <v>2.164E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.31343650817871088</v>
+        <v>0.35</v>
       </c>
       <c r="B3">
-        <v>3.85E-2</v>
+        <v>1.72E-2</v>
+      </c>
+      <c r="C3">
+        <f>(B3-B2)/(A3-A2)</f>
+        <v>-7.5493513338887652E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.39470863342285162</v>
+        <v>0.4</v>
       </c>
       <c r="B4">
-        <v>2.7E-2</v>
+        <v>1.44E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C15" si="0">(B4-B3)/(A4-A3)</f>
+        <v>-5.599999999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.46909332275390619</v>
+        <v>0.45</v>
       </c>
       <c r="B5">
-        <v>0.02</v>
+        <v>1.242E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-3.9599999999999989E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.53052139282226562</v>
+        <v>0.5</v>
       </c>
       <c r="B6">
-        <v>1.6299999999999999E-2</v>
+        <v>1.0970000000000001E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-2.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.54597663879394531</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="B7">
-        <v>1.55E-2</v>
+        <v>9.7300000000000008E-3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-2.4799999999999975E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.61533927917480469</v>
+        <v>0.6</v>
       </c>
       <c r="B8">
-        <v>1.2500000000000001E-2</v>
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-1.9600000000000027E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.62619781494140625</v>
+        <v>0.65</v>
       </c>
       <c r="B9">
-        <v>1.21E-2</v>
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-1.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.71057319641113281</v>
+        <v>0.7</v>
       </c>
       <c r="B10">
-        <v>0.01</v>
+        <v>6.9499999999999996E-3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-1.7000000000000026E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0.7862701416015625</v>
+        <v>0.75</v>
       </c>
       <c r="B11">
-        <v>8.5000000000000006E-3</v>
+        <v>6.1250000000000002E-3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-1.6499999999999973E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0.86182403564453125</v>
+        <v>0.8</v>
       </c>
       <c r="B12">
-        <v>7.4999999999999997E-3</v>
+        <v>5.3499999999999997E-3</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-1.5499999999999996E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>0.90713882446289062</v>
+        <v>0.85</v>
       </c>
       <c r="B13">
-        <v>7.0000000000000001E-3</v>
+        <v>4.7400000000000003E-3</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-1.2200000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.9</v>
+      </c>
+      <c r="B14">
+        <v>4.15E-3</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-1.1799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.91948700000000005</v>
+      </c>
+      <c r="B15">
+        <v>3.9500000000000004E-3</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-1.026325242469335E-2</v>
       </c>
     </row>
   </sheetData>
